--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fumiyukii\OneDrive\coding\__code2019__\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C6C454B5-F3B6-4291-9ACF-B6FDC5DF0EEF}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2878E97C-0F39-4C1D-9931-C297FB64AEA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E07AEB2-3932-485F-A253-B6473B69E5E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="332">
   <si>
     <t>INDEX</t>
   </si>
@@ -851,6 +851,183 @@
   </si>
   <si>
     <t>大鵬は第48代横綱。柏戸と共に大相撲の黄金期を築きました</t>
+  </si>
+  <si>
+    <t>屯田兵（とんでんへい）は、明治時代に北海道の警備と開拓にあたった兵士とその部隊である。1874年（明治7年）に制度が設けられ、翌年から実施、1904年（明治37年）に廃止された。</t>
+  </si>
+  <si>
+    <t>明治時代に北海道の警備と開拓を担当した兵士の名称は</t>
+  </si>
+  <si>
+    <t>明治</t>
+  </si>
+  <si>
+    <t>屯田兵</t>
+  </si>
+  <si>
+    <t>衛生兵</t>
+  </si>
+  <si>
+    <t>道産子</t>
+  </si>
+  <si>
+    <t>田原坂（たばるざか）は、熊本県熊本市北区植木町豊岡一帯の地名。西南戦争の古戦場であり、国の史跡に指定されている。</t>
+  </si>
+  <si>
+    <t>田原坂はどの戦争の激戦区となったか</t>
+  </si>
+  <si>
+    <t>西南戦争</t>
+  </si>
+  <si>
+    <t>戊辰戦争</t>
+  </si>
+  <si>
+    <t>大塩平八郎の乱</t>
+  </si>
+  <si>
+    <t>新藩主島津忠義の実父で事実上の最高権力者の島津久光と折り合わず、再び沖永良部島に流罪に遭う。</t>
+  </si>
+  <si>
+    <t>西郷隆盛が住んだことのない土地は</t>
+  </si>
+  <si>
+    <t>沖永良部島</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>種子島</t>
+  </si>
+  <si>
+    <t>西郷１８２８年生まれ、坂本１８３６年、高杉１８３９年</t>
+  </si>
+  <si>
+    <t>この中でもっとも若いのは</t>
+  </si>
+  <si>
+    <t>西郷隆盛</t>
+  </si>
+  <si>
+    <t>坂本龍馬</t>
+  </si>
+  <si>
+    <t>高杉晋作</t>
+  </si>
+  <si>
+    <t>この中でもっとも古い中国の王朝は</t>
+  </si>
+  <si>
+    <t>殷・周・秦・漢・隋・唐・宋・元・明・清と続く</t>
+  </si>
+  <si>
+    <t>隋</t>
+  </si>
+  <si>
+    <t>唐</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>マンガ「キングダム」の主人公が活躍する時代は</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>紀元前3世紀の古代中国の春秋戦国時代末期を舞台にして、後の始皇帝となる秦王政と、秦の武人である主人公・信の活躍を中心に描かれている中国時代劇である。信は後の秦の大将軍・李信であることがあらかじめ明かされている。</t>
+  </si>
+  <si>
+    <t>ローマ</t>
+  </si>
+  <si>
+    <t>ローマのキリスト教国教化に伴い、３９３年にローマ領内のギリシアで、ゼウスを主神とするオリンポス十二神の祭礼が行なわれると、神殿の財産を没収して異教禁圧への断固とした姿勢を示した。これに伴いギリシアの古代オリンピア競技会も終わりを告げた。</t>
+  </si>
+  <si>
+    <t>古代オリンピック「オリンピア競技会」が終わった理由は</t>
+  </si>
+  <si>
+    <t>ローマ帝国がキリスト教を国教にしたから</t>
+  </si>
+  <si>
+    <t>アテネとトルコ軍の戦争のため</t>
+  </si>
+  <si>
+    <t>黒死病が蔓延したため</t>
+  </si>
+  <si>
+    <t>1503年 - 1519年頃、レオナルド・ダヴィンチによって描かれた絵画。もともとはフランス王フランソワ1世が購入した作品だが、現在はフランスの国有財産であり、パリのルーヴル美術館が常設展示をしている</t>
+  </si>
+  <si>
+    <t>絵画、モナ・リザはどちらの手が上にあるか？</t>
+  </si>
+  <si>
+    <t>ルネッサンス</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>手は見えない</t>
+  </si>
+  <si>
+    <t>Fair is foul, and foul is fair.　マクベス１幕１場開幕に聞こえてくる有名な、魔女たちの謎に満ちた叫びです。</t>
+  </si>
+  <si>
+    <t>「きれいは汚い、汚いはきれい」はどの作品のセリフ？</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>マクベス</t>
+  </si>
+  <si>
+    <t>ハムレット</t>
+  </si>
+  <si>
+    <t>ジュリアス・シーザー</t>
+  </si>
+  <si>
+    <t>薔薇戦争（ばらせんそう、英: Wars of the Roses）は、百年戦争終戦後に発生したイングランド中世封建諸侯による内乱であり、実状としては百年戦争の敗戦責任の押し付け合いが次代のイングランド王朝の執権争いへと発展したものと言える。また、共にフランスのノルマンディ公2世ギヨームがイングランドに攻め込んだ征服したノルマン・コンクエストの後に長く続いたアンジュー帝国を築いたプランタジネット家の男系傍流であるランカスター家とヨーク家の、30年に及ぶ権力闘争でもある。最終的にはランカスター家の女系の血筋を引くテューダー家のヘンリー7世が武力でヨーク家を倒し、ヨーク家のエリザベス王女と結婚してテューダー朝を開いた。</t>
+  </si>
+  <si>
+    <t>ばら戦争が起きた場所は？</t>
+  </si>
+  <si>
+    <t>スペイン</t>
+  </si>
+  <si>
+    <t>イタリア</t>
+  </si>
+  <si>
+    <t>フランシスコ・デ・ザビエル（スペイン語: Francisco de Xavier または Francisco de Jasso y Azpilicueta, 1506年頃4月7日 - 1552年12月3日）は、スペインのナバラ王国生まれのカトリック教会の司祭、宣教師。イエズス会の創設メンバーの1人。バスク人。</t>
+  </si>
+  <si>
+    <t>戦国</t>
+  </si>
+  <si>
+    <t>キリスト教伝来で有名なザビエルは何人？</t>
+  </si>
+  <si>
+    <t>バスク人</t>
+  </si>
+  <si>
+    <t>イギリス人</t>
+  </si>
+  <si>
+    <t>オランダ人</t>
   </si>
 </sst>
 </file>
@@ -887,8 +1064,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1203,18 +1383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2C2B1-31EF-450A-B5F5-16B3CB5804FB}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
-    <col min="6" max="6" width="54.44140625" customWidth="1"/>
-    <col min="7" max="7" width="84.21875" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2700,6 +2880,259 @@
         <v>272</v>
       </c>
     </row>
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" t="s">
+        <v>288</v>
+      </c>
+      <c r="F58" t="s">
+        <v>286</v>
+      </c>
+      <c r="G58" t="s">
+        <v>287</v>
+      </c>
+      <c r="H58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" t="s">
+        <v>307</v>
+      </c>
+      <c r="F62" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" t="s">
+        <v>315</v>
+      </c>
+      <c r="H63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.8">
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" t="s">
+        <v>318</v>
+      </c>
+      <c r="F65" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" t="s">
+        <v>331</v>
+      </c>
+      <c r="H66" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fumiyukii\OneDrive\coding\__code2019__\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2878E97C-0F39-4C1D-9931-C297FB64AEA6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3FB61CA7-687E-4018-B37A-72865033D7D5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E07AEB2-3932-485F-A253-B6473B69E5E4}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>黒死病が蔓延したため</t>
   </si>
   <si>
-    <t>1503年 - 1519年頃、レオナルド・ダヴィンチによって描かれた絵画。もともとはフランス王フランソワ1世が購入した作品だが、現在はフランスの国有財産であり、パリのルーヴル美術館が常設展示をしている</t>
-  </si>
-  <si>
     <t>絵画、モナ・リザはどちらの手が上にあるか？</t>
   </si>
   <si>
@@ -1000,9 +997,6 @@
     <t>ジュリアス・シーザー</t>
   </si>
   <si>
-    <t>薔薇戦争（ばらせんそう、英: Wars of the Roses）は、百年戦争終戦後に発生したイングランド中世封建諸侯による内乱であり、実状としては百年戦争の敗戦責任の押し付け合いが次代のイングランド王朝の執権争いへと発展したものと言える。また、共にフランスのノルマンディ公2世ギヨームがイングランドに攻め込んだ征服したノルマン・コンクエストの後に長く続いたアンジュー帝国を築いたプランタジネット家の男系傍流であるランカスター家とヨーク家の、30年に及ぶ権力闘争でもある。最終的にはランカスター家の女系の血筋を引くテューダー家のヘンリー7世が武力でヨーク家を倒し、ヨーク家のエリザベス王女と結婚してテューダー朝を開いた。</t>
-  </si>
-  <si>
     <t>ばら戦争が起きた場所は？</t>
   </si>
   <si>
@@ -1028,6 +1022,12 @@
   </si>
   <si>
     <t>オランダ人</t>
+  </si>
+  <si>
+    <t>薔薇戦争（ばらせんそう、英: Wars of the Roses）は、百年戦争終戦後に発生したイングランド中世封建諸侯による内乱</t>
+  </si>
+  <si>
+    <t>1503年 - 1519年頃、レオナルド・ダヴィンチによって描かれた絵画。もともとはフランス王フランソワ1世が購入した作品だが、現在はフランスの国有財産</t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2C2B1-31EF-450A-B5F5-16B3CB5804FB}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f t="shared" ref="A4:A55" si="0">A3+1</f>
+        <f t="shared" ref="A4:A66" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2881,6 +2881,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>247</v>
       </c>
@@ -2904,6 +2908,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>247</v>
       </c>
@@ -2927,6 +2935,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>247</v>
       </c>
@@ -2950,6 +2962,10 @@
       </c>
     </row>
     <row r="59" spans="1:8">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>247</v>
       </c>
@@ -2973,6 +2989,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>247</v>
       </c>
@@ -2996,6 +3016,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>247</v>
       </c>
@@ -3019,6 +3043,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>247</v>
       </c>
@@ -3042,95 +3070,111 @@
       </c>
     </row>
     <row r="63" spans="1:8">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>247</v>
       </c>
       <c r="C63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" t="s">
         <v>312</v>
       </c>
-      <c r="D63" t="s">
-        <v>311</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>313</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>314</v>
       </c>
-      <c r="G63" t="s">
-        <v>315</v>
-      </c>
       <c r="H63" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>247</v>
       </c>
       <c r="C64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>319</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>320</v>
       </c>
-      <c r="G64" t="s">
-        <v>321</v>
-      </c>
       <c r="H64" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" t="s">
+        <v>317</v>
+      </c>
+      <c r="F65" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" t="s">
         <v>323</v>
       </c>
-      <c r="E65" t="s">
-        <v>318</v>
-      </c>
-      <c r="F65" t="s">
-        <v>324</v>
-      </c>
-      <c r="G65" t="s">
-        <v>325</v>
-      </c>
       <c r="H65" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>247</v>
       </c>
       <c r="C66" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" t="s">
         <v>327</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>328</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>329</v>
       </c>
-      <c r="F66" t="s">
-        <v>330</v>
-      </c>
-      <c r="G66" t="s">
-        <v>331</v>
-      </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fumiyukii\OneDrive\coding\__code2019__\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/713efe4cd10539cd/coding/__code2019__/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3FB61CA7-687E-4018-B37A-72865033D7D5}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{4DF54118-4032-4BF8-8C90-016406D87A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B56E8FFF-7960-477B-B285-DB59D26A0120}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E07AEB2-3932-485F-A253-B6473B69E5E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="374">
   <si>
     <t>INDEX</t>
   </si>
@@ -943,9 +943,6 @@
     <t>清</t>
   </si>
   <si>
-    <t>紀元前3世紀の古代中国の春秋戦国時代末期を舞台にして、後の始皇帝となる秦王政と、秦の武人である主人公・信の活躍を中心に描かれている中国時代劇である。信は後の秦の大将軍・李信であることがあらかじめ明かされている。</t>
-  </si>
-  <si>
     <t>ローマ</t>
   </si>
   <si>
@@ -979,9 +976,6 @@
     <t>手は見えない</t>
   </si>
   <si>
-    <t>Fair is foul, and foul is fair.　マクベス１幕１場開幕に聞こえてくる有名な、魔女たちの謎に満ちた叫びです。</t>
-  </si>
-  <si>
     <t>「きれいは汚い、汚いはきれい」はどの作品のセリフ？</t>
   </si>
   <si>
@@ -1006,9 +1000,6 @@
     <t>イタリア</t>
   </si>
   <si>
-    <t>フランシスコ・デ・ザビエル（スペイン語: Francisco de Xavier または Francisco de Jasso y Azpilicueta, 1506年頃4月7日 - 1552年12月3日）は、スペインのナバラ王国生まれのカトリック教会の司祭、宣教師。イエズス会の創設メンバーの1人。バスク人。</t>
-  </si>
-  <si>
     <t>戦国</t>
   </si>
   <si>
@@ -1024,10 +1015,145 @@
     <t>オランダ人</t>
   </si>
   <si>
-    <t>薔薇戦争（ばらせんそう、英: Wars of the Roses）は、百年戦争終戦後に発生したイングランド中世封建諸侯による内乱</t>
-  </si>
-  <si>
-    <t>1503年 - 1519年頃、レオナルド・ダヴィンチによって描かれた絵画。もともとはフランス王フランソワ1世が購入した作品だが、現在はフランスの国有財産</t>
+    <t>紀元前3世紀の古代中国の春秋戦国時代末期を舞台にして、後の始皇帝となる秦王政と、秦の武人である主人公・信の活躍を中心に描かれている中国時代劇</t>
+  </si>
+  <si>
+    <t>レオナルド・ダヴィンチによって描かれた絵画。もともとはフランス王フランソワ1世が購入した作品だが、現在はフランスの国有財産</t>
+  </si>
+  <si>
+    <t>Fair is foul, and foul is fair.マクベス１幕１場開幕に聞こえてくる有名な、魔女たちの謎に満ちた叫び.</t>
+  </si>
+  <si>
+    <t>薔薇戦争（ Wars of the Roses）は、百年戦争終戦後に発生したイングランド中世封建諸侯による内乱</t>
+  </si>
+  <si>
+    <t>フランシスコ・デ・ザビエルは、スペインのナバラ王国生まれのカトリック教会の司祭、宣教師。イエズス会の創設メンバーの1人。バスク人。</t>
+  </si>
+  <si>
+    <t>漢字</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鯵」</t>
+  </si>
+  <si>
+    <t>あじ</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鮎」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鯇」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鮑」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「魦」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鯆」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鰯」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鮇」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鱓」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鰻」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鰕」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鰈」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鮍」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鱚」</t>
+  </si>
+  <si>
+    <t>次の読み方をひらがなで、「鯨」</t>
+  </si>
+  <si>
+    <t>うつぼ</t>
+  </si>
+  <si>
+    <t>あゆ</t>
+  </si>
+  <si>
+    <t>あゆのうお</t>
+  </si>
+  <si>
+    <t>あわび</t>
+  </si>
+  <si>
+    <t>いさざ</t>
+  </si>
+  <si>
+    <t>いるか</t>
+  </si>
+  <si>
+    <t>いわし</t>
+  </si>
+  <si>
+    <t>いわな</t>
+  </si>
+  <si>
+    <t>うなぎ</t>
+  </si>
+  <si>
+    <t>えび</t>
+  </si>
+  <si>
+    <t>かれい</t>
+  </si>
+  <si>
+    <t>かわはぎ</t>
+  </si>
+  <si>
+    <t>きす</t>
+  </si>
+  <si>
+    <t>くじら</t>
+  </si>
+  <si>
+    <t>魚「ひがい」の漢字は？</t>
+  </si>
+  <si>
+    <t>鰉</t>
+  </si>
+  <si>
+    <t>鰣</t>
+  </si>
+  <si>
+    <t>鰊</t>
+  </si>
+  <si>
+    <t>鰉　ひがい　鰣　はす　鰊　にしん</t>
+  </si>
+  <si>
+    <t>鯔</t>
+  </si>
+  <si>
+    <t>魚「ぼら」の漢字は？</t>
+  </si>
+  <si>
+    <t>鮴</t>
+  </si>
+  <si>
+    <t>鯥</t>
+  </si>
+  <si>
+    <t>鯔　ぼら　鯥　むつ　鮴　めばる</t>
   </si>
 </sst>
 </file>
@@ -1383,15 +1509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2C2B1-31EF-450A-B5F5-16B3CB5804FB}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A66"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
     <col min="7" max="7" width="34.5546875" customWidth="1"/>
@@ -1478,7 +1604,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f t="shared" ref="A4:A66" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3039,7 +3165,7 @@
         <v>302</v>
       </c>
       <c r="H61" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3051,22 +3177,22 @@
         <v>247</v>
       </c>
       <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" t="s">
+        <v>308</v>
+      </c>
+      <c r="H62" t="s">
         <v>304</v>
-      </c>
-      <c r="D62" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F62" t="s">
-        <v>308</v>
-      </c>
-      <c r="G62" t="s">
-        <v>309</v>
-      </c>
-      <c r="H62" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3078,25 +3204,25 @@
         <v>247</v>
       </c>
       <c r="C63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" t="s">
         <v>311</v>
       </c>
-      <c r="D63" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>312</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>313</v>
       </c>
-      <c r="G63" t="s">
-        <v>314</v>
-      </c>
       <c r="H63" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="28.8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3105,22 +3231,22 @@
         <v>247</v>
       </c>
       <c r="C64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64" t="s">
         <v>317</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>318</v>
       </c>
-      <c r="F64" t="s">
-        <v>319</v>
-      </c>
-      <c r="G64" t="s">
-        <v>320</v>
-      </c>
       <c r="H64" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3132,19 +3258,19 @@
         <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" t="s">
         <v>321</v>
-      </c>
-      <c r="E65" t="s">
-        <v>317</v>
-      </c>
-      <c r="F65" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" t="s">
-        <v>323</v>
       </c>
       <c r="H65" t="s">
         <v>330</v>
@@ -3159,22 +3285,406 @@
         <v>247</v>
       </c>
       <c r="C66" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E66" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" t="s">
         <v>325</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>326</v>
       </c>
-      <c r="E66" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" t="s">
-        <v>328</v>
-      </c>
-      <c r="G66" t="s">
-        <v>329</v>
-      </c>
       <c r="H66" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" t="s">
+        <v>343</v>
+      </c>
+      <c r="E67" t="s">
+        <v>350</v>
+      </c>
+      <c r="H67" t="str">
+        <f>RIGHT(D67,3)&amp;E67</f>
+        <v>「鱓」うつぼ</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <f t="shared" ref="A68:A83" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" t="s">
+        <v>335</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H81" si="2">RIGHT(D68,3)&amp;E68</f>
+        <v>「鯵」あじ</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" t="s">
+        <v>351</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>「鮎」あゆ</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" t="s">
+        <v>337</v>
+      </c>
+      <c r="E70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>「鯇」あゆのうお</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>「鮑」あわび</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>「魦」いさざ</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" t="s">
+        <v>355</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>「鯆」いるか</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" t="s">
+        <v>333</v>
+      </c>
+      <c r="D74" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>「鰯」いわし</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" t="s">
+        <v>333</v>
+      </c>
+      <c r="D75" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" t="s">
+        <v>357</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>「鮇」いわな</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>「鰻」うなぎ</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" t="s">
+        <v>359</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>「鰕」えび</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s">
+        <v>333</v>
+      </c>
+      <c r="D78" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" t="s">
+        <v>360</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>「鰈」かれい</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" t="s">
+        <v>333</v>
+      </c>
+      <c r="D79" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>「鮍」かわはぎ</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" t="s">
+        <v>348</v>
+      </c>
+      <c r="E80" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>「鱚」きす</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>349</v>
+      </c>
+      <c r="E81" t="s">
+        <v>363</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>「鯨」くじら</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" t="s">
+        <v>365</v>
+      </c>
+      <c r="F82" t="s">
+        <v>366</v>
+      </c>
+      <c r="G82" t="s">
+        <v>367</v>
+      </c>
+      <c r="H82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" t="s">
+        <v>370</v>
+      </c>
+      <c r="E83" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83" t="s">
+        <v>371</v>
+      </c>
+      <c r="G83" t="s">
+        <v>372</v>
+      </c>
+      <c r="H83" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
